--- a/myopia-business/bootstrap/src/main/resources/template/ScreeningStaffImport.xlsx
+++ b/myopia-business/bootstrap/src/main/resources/template/ScreeningStaffImport.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simple4h/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A1601B3-FE07-5147-B561-95D4072B299C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15576EE6-F513-1744-9DED-34AC494B327F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="1500" windowWidth="28240" windowHeight="17440" xr2:uid="{583715B1-D57B-6C47-B33E-A76CF0C61FCA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="筛查人员表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -34,24 +31,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>筛查人员表</t>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>性别</t>
-  </si>
-  <si>
-    <t>身份证号</t>
-  </si>
-  <si>
-    <t>手机号码</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+  <si>
+    <t>筛查机构人员表：
+表格填写说明（请按要求填写）：
+1、带*为必填项</t>
+  </si>
+  <si>
+    <t>姓名*</t>
+  </si>
+  <si>
+    <t>性别*</t>
+  </si>
+  <si>
+    <t>身份证号*</t>
+  </si>
+  <si>
+    <t>手机号码*</t>
   </si>
   <si>
     <t>说明</t>
@@ -60,33 +56,27 @@
     <t>陈肖</t>
   </si>
   <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
     <t>女</t>
   </si>
   <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>4414343334343422323</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>350201199308194277</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -95,11 +85,34 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -111,18 +124,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -132,53 +145,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -188,26 +164,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -216,8 +183,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -225,6 +195,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFCC"/>
+      <color rgb="FFFFF2CC"/>
+      <color rgb="FF000000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -237,7 +214,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -253,7 +230,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -265,7 +242,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -279,12 +256,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -312,31 +289,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -364,23 +324,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -523,83 +466,370 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F72E19-8DC0-4B44-B947-10848DBB5DFB}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="24.83203125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="13" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" customHeight="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" ht="62" customHeight="1">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:6" ht="17">
+    <row r="2" spans="1:7" ht="18" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="18" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3">
+        <v>15219466201</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" ht="34">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="7">
-        <v>12321233452</v>
-      </c>
-      <c r="F3" s="2" t="s">
+    <row r="4" spans="1:7" ht="18" customHeight="1">
+      <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="5" spans="1:7" ht="18" customHeight="1"/>
+    <row r="6" spans="1:7" ht="18" customHeight="1"/>
+    <row r="7" spans="1:7" ht="18" customHeight="1"/>
+    <row r="8" spans="1:7" ht="18" customHeight="1"/>
+    <row r="9" spans="1:7" ht="18" customHeight="1"/>
+    <row r="10" spans="1:7" ht="18" customHeight="1"/>
+    <row r="11" spans="1:7" ht="18" customHeight="1"/>
+    <row r="12" spans="1:7" ht="18" customHeight="1"/>
+    <row r="13" spans="1:7" ht="18" customHeight="1"/>
+    <row r="14" spans="1:7" ht="18" customHeight="1"/>
+    <row r="15" spans="1:7" ht="18" customHeight="1"/>
+    <row r="16" spans="1:7" ht="18" customHeight="1"/>
+    <row r="17" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>$G$3:$G$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004B6D8A1CD1423A4B8D4D5DEFA52C453D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="49692f9fd0de76e21985a51b3fb35302">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7ea92aa9-b9d9-496e-9f4f-04b987921789" xmlns:ns3="9f45abd3-cfd2-4b8b-be93-7022777a81ef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3479310f70bf85556a19b3d7ba23b63b" ns2:_="" ns3:_="">
+    <xsd:import namespace="7ea92aa9-b9d9-496e-9f4f-04b987921789"/>
+    <xsd:import namespace="9f45abd3-cfd2-4b8b-be93-7022777a81ef"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7ea92aa9-b9d9-496e-9f4f-04b987921789" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="18" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="19" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9f45abd3-cfd2-4b8b-be93-7022777a81ef" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA08F66D-4798-4B43-8797-EA9E77AFFA53}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59FF235E-965F-4A87-A04E-4F525EBD02FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7ea92aa9-b9d9-496e-9f4f-04b987921789"/>
+    <ds:schemaRef ds:uri="9f45abd3-cfd2-4b8b-be93-7022777a81ef"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F62DC28F-306E-455F-9450-5F7470941167}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>